--- a/game_excel/subactive.xlsx
+++ b/game_excel/subactive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -176,22 +176,6 @@
     <t>ih.gem16</t>
   </si>
   <si>
-    <t>充值返利1(暂时不考虑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值返利2(暂时不考虑)</t>
-  </si>
-  <si>
-    <t>充值返利3(暂时不考虑)</t>
-  </si>
-  <si>
-    <t>充值返利4(暂时不考虑)</t>
-  </si>
-  <si>
-    <t>充值返利5(暂时不考虑)</t>
-  </si>
-  <si>
     <t>获得英雄1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,217 +219,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>抽卡任务2</t>
+  </si>
+  <si>
+    <t>22,2</t>
+  </si>
+  <si>
+    <t>抽卡任务3</t>
+  </si>
+  <si>
+    <t>22,4</t>
+  </si>
+  <si>
+    <t>抽卡任务4</t>
+  </si>
+  <si>
+    <t>22,5</t>
+  </si>
+  <si>
+    <t>抽卡任务5</t>
+  </si>
+  <si>
+    <t>22,8</t>
+  </si>
+  <si>
+    <t>竞技场任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场任务2</t>
+  </si>
+  <si>
+    <t>竞技场任务3</t>
+  </si>
+  <si>
+    <t>竞技场任务4</t>
+  </si>
+  <si>
+    <t>竞技场任务5</t>
+  </si>
+  <si>
+    <t>节日物品兑换1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日物品兑换2</t>
+  </si>
+  <si>
+    <t>节日物品兑换3</t>
+  </si>
+  <si>
+    <t>节日物品兑换4</t>
+  </si>
+  <si>
+    <t>节日物品兑换5</t>
+  </si>
+  <si>
+    <t>1,500000,2,500000,21,500</t>
+  </si>
+  <si>
+    <t>1,1000000,4,500,5,500,6,500,21,1000</t>
+  </si>
+  <si>
+    <t>1,3000000,57020,50,16,20,21,2500</t>
+  </si>
+  <si>
+    <t>1,6000000,57020,100,22,10,21,5000</t>
+  </si>
+  <si>
+    <t>16,10,21,500</t>
+  </si>
+  <si>
+    <t>16,20,21,1000</t>
+  </si>
+  <si>
+    <t>53053,50,16,30,21,2500</t>
+  </si>
+  <si>
+    <t>53053,100,22,10,21,5000</t>
+  </si>
+  <si>
     <t>22,1</t>
-  </si>
-  <si>
-    <t>抽卡任务2</t>
-  </si>
-  <si>
-    <t>22,2</t>
-  </si>
-  <si>
-    <t>抽卡任务3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5000000,2,5000000,3,500,21,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10000000,13,6000,3,1000,21,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,30000000,16,30,3,2500,21,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,60000000,22,15,3,5000,21,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节日特惠1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节日特惠2</t>
+  </si>
+  <si>
+    <t>圣诞节日特惠3</t>
+  </si>
+  <si>
+    <t>圣诞节日特惠4</t>
+  </si>
+  <si>
+    <t>新年节日特惠1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年节日特惠2</t>
+  </si>
+  <si>
+    <t>新年节日特惠3</t>
+  </si>
+  <si>
+    <t>新年节日特惠4</t>
+  </si>
+  <si>
+    <t>22,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22,4</t>
-  </si>
-  <si>
-    <t>抽卡任务4</t>
-  </si>
-  <si>
-    <t>22,5</t>
-  </si>
-  <si>
-    <t>抽卡任务5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,8,22,1,21,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ih.gem17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ih.gem18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ih.gem19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ih.gem20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53057,50,22,6,21,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53057,100,22,12,21,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,22,3,21,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,500,5,500,6,500,16,10,21,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57020,50,22,5,21,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新周特惠1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新周特惠2</t>
+  </si>
+  <si>
+    <t>新周特惠3</t>
+  </si>
+  <si>
+    <t>新周特惠4</t>
+  </si>
+  <si>
+    <t>1,500000,2,500000,16,5,21,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22,8</t>
-  </si>
-  <si>
-    <t>竞技场任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场任务2</t>
-  </si>
-  <si>
-    <t>竞技场任务3</t>
-  </si>
-  <si>
-    <t>竞技场任务4</t>
-  </si>
-  <si>
-    <t>竞技场任务5</t>
-  </si>
-  <si>
-    <t>节日物品兑换1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日物品兑换2</t>
-  </si>
-  <si>
-    <t>节日物品兑换3</t>
-  </si>
-  <si>
-    <t>节日物品兑换4</t>
-  </si>
-  <si>
-    <t>节日物品兑换5</t>
-  </si>
-  <si>
-    <t>1,500000,2,500000,21,500</t>
-  </si>
-  <si>
-    <t>1,1000000,4,500,5,500,6,500,21,1000</t>
-  </si>
-  <si>
-    <t>1,3000000,57020,50,16,20,21,2500</t>
-  </si>
-  <si>
-    <t>1,6000000,57020,100,22,10,21,5000</t>
-  </si>
-  <si>
-    <t>16,10,21,500</t>
-  </si>
-  <si>
-    <t>16,20,21,1000</t>
-  </si>
-  <si>
-    <t>53053,50,16,30,21,2500</t>
-  </si>
-  <si>
-    <t>53053,100,22,10,21,5000</t>
-  </si>
-  <si>
-    <t>22,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5000000,2,5000000,3,500,21,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10000000,13,6000,3,1000,21,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,30000000,16,30,3,2500,21,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,60000000,22,15,3,5000,21,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞节日特惠1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞节日特惠2</t>
-  </si>
-  <si>
-    <t>圣诞节日特惠3</t>
-  </si>
-  <si>
-    <t>圣诞节日特惠4</t>
-  </si>
-  <si>
-    <t>新年节日特惠1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年节日特惠2</t>
-  </si>
-  <si>
-    <t>新年节日特惠3</t>
-  </si>
-  <si>
-    <t>新年节日特惠4</t>
-  </si>
-  <si>
-    <t>22,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,8,22,1,21,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ih.gem17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ih.gem18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ih.gem19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ih.gem20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53057,50,22,6,21,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53057,100,22,12,21,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,15,22,3,21,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,500,5,500,6,500,16,10,21,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57020,50,22,5,21,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新周特惠1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新周特惠2</t>
-  </si>
-  <si>
-    <t>新周特惠3</t>
-  </si>
-  <si>
-    <t>新周特惠4</t>
-  </si>
-  <si>
-    <t>1,500000,2,500000,16,5,21,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -516,6 +497,78 @@
   </si>
   <si>
     <t>11012,1,13012,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利2(240%)-粉末虚价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利1(180%)-粉末虚价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,1500,25,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,1800,26,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利9(300%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,3000,26,6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利4(180%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利3(160%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利8(270%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利7(240%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利6(220%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利5(200%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,1200,25,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,24000,26,2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,360,25,6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,4000,26,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,100,25,1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,200,26,320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,18 +971,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD33"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
@@ -1077,13 +1130,13 @@
         <v>1001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1094,13 +1147,13 @@
         <v>1002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1111,13 +1164,13 @@
         <v>1003</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1128,81 +1181,81 @@
         <v>1004</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B10" s="3">
         <v>1005</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I10" s="1">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3">
         <v>1006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3">
         <v>1007</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3">
         <v>1008</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1219,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1236,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1253,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1270,12 +1323,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B18" s="3">
         <v>2005</v>
@@ -1287,12 +1340,12 @@
         <v>5</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3">
         <v>2006</v>
@@ -1304,12 +1357,12 @@
         <v>3</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3">
         <v>2007</v>
@@ -1321,12 +1374,12 @@
         <v>2</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B21" s="3">
         <v>2008</v>
@@ -1338,12 +1391,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3">
         <v>3001</v>
@@ -1355,12 +1408,12 @@
         <v>5</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3">
         <v>3002</v>
@@ -1372,12 +1425,12 @@
         <v>3</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3">
         <v>3003</v>
@@ -1389,12 +1442,12 @@
         <v>2</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3">
         <v>3004</v>
@@ -1406,12 +1459,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3">
         <v>3005</v>
@@ -1423,12 +1476,12 @@
         <v>5</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B27" s="3">
         <v>3006</v>
@@ -1440,12 +1493,12 @@
         <v>3</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3">
         <v>3007</v>
@@ -1457,12 +1510,12 @@
         <v>2</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B29" s="3">
         <v>3008</v>
@@ -1474,12 +1527,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B30" s="3">
         <v>4001</v>
@@ -1494,12 +1547,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3">
         <v>4002</v>
@@ -1514,12 +1567,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="B32" s="3">
         <v>4003</v>
@@ -1534,12 +1587,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="B33" s="3">
         <v>4004</v>
@@ -1548,18 +1601,18 @@
         <v>300012</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="B34" s="3">
         <v>4005</v>
@@ -1568,137 +1621,101 @@
         <v>300012</v>
       </c>
       <c r="E34" s="1">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B35" s="3">
-        <v>5001</v>
+        <v>4006</v>
       </c>
       <c r="D35" s="6">
-        <v>300026</v>
+        <v>300012</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>20</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="B36" s="3">
-        <v>5002</v>
+        <v>4007</v>
       </c>
       <c r="D36" s="6">
-        <v>300026</v>
+        <v>300012</v>
       </c>
       <c r="E36" s="1">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1">
-        <v>8</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="B37" s="3">
-        <v>5003</v>
+        <v>4008</v>
       </c>
       <c r="D37" s="6">
-        <v>300026</v>
+        <v>300012</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1">
-        <v>20</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B38" s="3">
-        <v>5004</v>
+        <v>4009</v>
       </c>
       <c r="D38" s="6">
-        <v>300026</v>
+        <v>300012</v>
       </c>
       <c r="E38" s="1">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="D39" s="6">
         <v>300026</v>
@@ -1719,15 +1736,15 @@
         <v>1</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="D40" s="6">
         <v>300026</v>
@@ -1736,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1748,15 +1765,15 @@
         <v>1</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="D41" s="6">
         <v>300026</v>
@@ -1765,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1777,15 +1794,15 @@
         <v>1</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>5008</v>
+        <v>5004</v>
       </c>
       <c r="D42" s="6">
         <v>300026</v>
@@ -1794,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1806,27 +1823,27 @@
         <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B43" s="3">
-        <v>5009</v>
+        <v>5005</v>
       </c>
       <c r="D43" s="6">
-        <v>300016</v>
+        <v>300026</v>
       </c>
       <c r="E43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -1835,27 +1852,27 @@
         <v>1</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B44" s="3">
-        <v>5010</v>
+        <v>5006</v>
       </c>
       <c r="D44" s="6">
-        <v>300017</v>
+        <v>300026</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -1864,27 +1881,27 @@
         <v>1</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B45" s="3">
-        <v>5011</v>
+        <v>5007</v>
       </c>
       <c r="D45" s="6">
-        <v>300018</v>
+        <v>300026</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -1893,27 +1910,27 @@
         <v>1</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3">
-        <v>5012</v>
+        <v>5008</v>
       </c>
       <c r="D46" s="6">
-        <v>300019</v>
+        <v>300026</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
       </c>
       <c r="F46" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -1922,18 +1939,18 @@
         <v>1</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B47" s="3">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="D47" s="6">
-        <v>300020</v>
+        <v>300016</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
@@ -1942,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -1951,18 +1968,18 @@
         <v>1</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B48" s="3">
-        <v>5014</v>
+        <v>5010</v>
       </c>
       <c r="D48" s="6">
-        <v>300021</v>
+        <v>300017</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -1971,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -1980,310 +1997,346 @@
         <v>1</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3">
-        <v>6001</v>
+        <v>5011</v>
       </c>
       <c r="D49" s="6">
-        <v>300022</v>
+        <v>300018</v>
       </c>
       <c r="E49" s="1">
-        <v>2000</v>
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B50" s="3">
-        <v>6002</v>
+        <v>5012</v>
       </c>
       <c r="D50" s="6">
-        <v>300022</v>
+        <v>300019</v>
       </c>
       <c r="E50" s="1">
-        <v>5000</v>
+        <v>5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="B51" s="3">
-        <v>6003</v>
+        <v>5013</v>
       </c>
       <c r="D51" s="6">
-        <v>300022</v>
+        <v>300020</v>
       </c>
       <c r="E51" s="1">
-        <v>10000</v>
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="B52" s="3">
-        <v>6004</v>
+        <v>5014</v>
       </c>
       <c r="D52" s="6">
-        <v>300022</v>
+        <v>300021</v>
       </c>
       <c r="E52" s="1">
-        <v>17000</v>
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B53" s="3">
-        <v>6005</v>
+        <v>6001</v>
       </c>
       <c r="D53" s="6">
         <v>300022</v>
       </c>
       <c r="E53" s="1">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3">
-        <v>7001</v>
+        <v>6002</v>
       </c>
       <c r="D54" s="6">
-        <v>300023</v>
+        <v>300022</v>
       </c>
       <c r="E54" s="1">
-        <v>4</v>
-      </c>
-      <c r="F54" s="1">
-        <v>20</v>
+        <v>5000</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3">
-        <v>7002</v>
+        <v>6003</v>
       </c>
       <c r="D55" s="6">
-        <v>300023</v>
+        <v>300022</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
-      </c>
-      <c r="F55" s="1">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3">
-        <v>7003</v>
+        <v>6004</v>
       </c>
       <c r="D56" s="6">
-        <v>300023</v>
+        <v>300022</v>
       </c>
       <c r="E56" s="1">
-        <v>6</v>
-      </c>
-      <c r="F56" s="1">
-        <v>4</v>
+        <v>17000</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B57" s="3">
-        <v>7004</v>
+        <v>6005</v>
       </c>
       <c r="D57" s="6">
-        <v>300023</v>
+        <v>300022</v>
       </c>
       <c r="E57" s="1">
-        <v>7</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B58" s="3">
-        <v>8001</v>
+        <v>7001</v>
       </c>
       <c r="D58" s="6">
-        <v>300024</v>
+        <v>300023</v>
       </c>
       <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
         <v>20</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B59" s="3">
-        <v>8002</v>
+        <v>7002</v>
       </c>
       <c r="D59" s="6">
-        <v>300024</v>
+        <v>300023</v>
       </c>
       <c r="E59" s="1">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>10</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B60" s="3">
-        <v>8003</v>
+        <v>7003</v>
       </c>
       <c r="D60" s="6">
-        <v>300024</v>
+        <v>300023</v>
       </c>
       <c r="E60" s="1">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B61" s="3">
-        <v>8004</v>
+        <v>7004</v>
       </c>
       <c r="D61" s="6">
-        <v>300024</v>
+        <v>300023</v>
       </c>
       <c r="E61" s="1">
-        <v>170</v>
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B62" s="3">
-        <v>8005</v>
+        <v>8001</v>
       </c>
       <c r="D62" s="6">
         <v>300024</v>
       </c>
       <c r="E62" s="1">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B63" s="3">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="D63" s="6">
-        <v>300025</v>
+        <v>300024</v>
       </c>
       <c r="E63" s="1">
         <v>50</v>
@@ -2292,18 +2345,18 @@
         <v>1</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B64" s="3">
-        <v>9002</v>
+        <v>8003</v>
       </c>
       <c r="D64" s="6">
-        <v>300025</v>
+        <v>300024</v>
       </c>
       <c r="E64" s="1">
         <v>100</v>
@@ -2312,167 +2365,247 @@
         <v>1</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3">
-        <v>9003</v>
+        <v>8004</v>
       </c>
       <c r="D65" s="6">
-        <v>300025</v>
+        <v>300024</v>
       </c>
       <c r="E65" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B66" s="3">
-        <v>9004</v>
+        <v>8005</v>
       </c>
       <c r="D66" s="6">
-        <v>300025</v>
+        <v>300024</v>
       </c>
       <c r="E66" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>9005</v>
+        <v>9001</v>
       </c>
       <c r="D67" s="6">
         <v>300025</v>
       </c>
       <c r="E67" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>11001</v>
+        <v>9002</v>
+      </c>
+      <c r="D68" s="6">
+        <v>300025</v>
       </c>
       <c r="E68" s="1">
-        <v>10001</v>
-      </c>
-      <c r="F68" s="1">
         <v>100</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>11002</v>
+        <v>9003</v>
+      </c>
+      <c r="D69" s="6">
+        <v>300025</v>
       </c>
       <c r="E69" s="1">
-        <v>11001</v>
-      </c>
-      <c r="F69" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>11003</v>
+        <v>9004</v>
+      </c>
+      <c r="D70" s="6">
+        <v>300025</v>
       </c>
       <c r="E70" s="1">
-        <v>12001</v>
-      </c>
-      <c r="F70" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I70" s="1">
         <v>1</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>11004</v>
+        <v>9005</v>
+      </c>
+      <c r="D71" s="6">
+        <v>300025</v>
       </c>
       <c r="E71" s="1">
-        <v>13001</v>
-      </c>
-      <c r="F71" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B72" s="3">
+        <v>11001</v>
+      </c>
+      <c r="E72" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F72" s="1">
+        <v>100</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>11002</v>
+      </c>
+      <c r="E73" s="1">
+        <v>11001</v>
+      </c>
+      <c r="F73" s="1">
+        <v>100</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>11003</v>
+      </c>
+      <c r="E74" s="1">
+        <v>12001</v>
+      </c>
+      <c r="F74" s="1">
+        <v>100</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>11004</v>
+      </c>
+      <c r="E75" s="1">
+        <v>13001</v>
+      </c>
+      <c r="F75" s="1">
+        <v>100</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
         <v>11005</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E76" s="1">
         <v>16</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F76" s="1">
         <v>10</v>
       </c>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>69</v>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/game_excel/subactive.xlsx
+++ b/game_excel/subactive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>关联EventID 301类型的活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值类型奖励不放这里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -977,7 +973,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1002,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
@@ -1031,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -1060,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1089,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -1116,423 +1112,420 @@
         <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>1001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
         <v>1002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3">
         <v>1003</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
         <v>1004</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3">
         <v>1005</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="1">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3">
         <v>1006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3">
         <v>1007</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="3">
         <v>1008</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>2001</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>2002</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3">
         <v>2003</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3">
         <v>2004</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3">
         <v>2005</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1">
         <v>5</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="3">
         <v>2006</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3">
         <v>2007</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3">
         <v>2008</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3">
         <v>3001</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1">
         <v>5</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3">
         <v>3002</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1">
         <v>3</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3">
         <v>3003</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3">
         <v>3004</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3">
         <v>3005</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="1">
         <v>5</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3">
         <v>3006</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3">
         <v>3007</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3">
         <v>3008</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3">
         <v>4001</v>
@@ -1547,12 +1540,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="3">
         <v>4002</v>
@@ -1567,12 +1560,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="3">
         <v>4003</v>
@@ -1587,12 +1580,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="3">
         <v>4004</v>
@@ -1607,12 +1600,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="3">
         <v>4005</v>
@@ -1627,12 +1620,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="3">
         <v>4006</v>
@@ -1647,12 +1640,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" s="3">
         <v>4007</v>
@@ -1667,12 +1660,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="3">
         <v>4008</v>
@@ -1687,12 +1680,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="3">
         <v>4009</v>
@@ -1707,12 +1700,12 @@
         <v>1</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3">
         <v>5001</v>
@@ -1736,12 +1729,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3">
         <v>5002</v>
@@ -1765,12 +1758,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3">
         <v>5003</v>
@@ -1794,12 +1787,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="3">
         <v>5004</v>
@@ -1823,12 +1816,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="3">
         <v>5005</v>
@@ -1852,12 +1845,12 @@
         <v>1</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3">
         <v>5006</v>
@@ -1881,12 +1874,12 @@
         <v>1</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3">
         <v>5007</v>
@@ -1910,12 +1903,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3">
         <v>5008</v>
@@ -1939,12 +1932,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" s="3">
         <v>5009</v>
@@ -1968,12 +1961,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" s="3">
         <v>5010</v>
@@ -1997,12 +1990,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="3">
         <v>5011</v>
@@ -2026,12 +2019,12 @@
         <v>1</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="3">
         <v>5012</v>
@@ -2055,12 +2048,12 @@
         <v>1</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="3">
         <v>5013</v>
@@ -2084,12 +2077,12 @@
         <v>1</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="3">
         <v>5014</v>
@@ -2113,12 +2106,12 @@
         <v>1</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3">
         <v>6001</v>
@@ -2133,12 +2126,12 @@
         <v>1</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="3">
         <v>6002</v>
@@ -2153,12 +2146,12 @@
         <v>1</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3">
         <v>6003</v>
@@ -2173,12 +2166,12 @@
         <v>1</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="3">
         <v>6004</v>
@@ -2193,12 +2186,12 @@
         <v>1</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="3">
         <v>6005</v>
@@ -2213,12 +2206,12 @@
         <v>1</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3">
         <v>7001</v>
@@ -2236,12 +2229,12 @@
         <v>1</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="3">
         <v>7002</v>
@@ -2259,12 +2252,12 @@
         <v>1</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3">
         <v>7003</v>
@@ -2282,12 +2275,12 @@
         <v>1</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="3">
         <v>7004</v>
@@ -2305,12 +2298,12 @@
         <v>1</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="3">
         <v>8001</v>
@@ -2325,12 +2318,12 @@
         <v>1</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3">
         <v>8002</v>
@@ -2345,12 +2338,12 @@
         <v>1</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="3">
         <v>8003</v>
@@ -2365,12 +2358,12 @@
         <v>1</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="3">
         <v>8004</v>
@@ -2385,12 +2378,12 @@
         <v>1</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="3">
         <v>8005</v>
@@ -2405,12 +2398,12 @@
         <v>1</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3">
         <v>9001</v>
@@ -2425,12 +2418,12 @@
         <v>1</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3">
         <v>9002</v>
@@ -2445,12 +2438,12 @@
         <v>1</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="3">
         <v>9003</v>
@@ -2465,12 +2458,12 @@
         <v>1</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3">
         <v>9004</v>
@@ -2485,12 +2478,12 @@
         <v>1</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="3">
         <v>9005</v>
@@ -2505,12 +2498,12 @@
         <v>1</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="3">
         <v>11001</v>
@@ -2525,12 +2518,12 @@
         <v>1</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3">
         <v>11002</v>
@@ -2545,12 +2538,12 @@
         <v>1</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="3">
         <v>11003</v>
@@ -2565,12 +2558,12 @@
         <v>1</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3">
         <v>11004</v>
@@ -2585,12 +2578,12 @@
         <v>1</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3">
         <v>11005</v>
@@ -2605,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
